--- a/Hardware/BOM/Manta active vaccum tag BOM.xlsx
+++ b/Hardware/BOM/Manta active vaccum tag BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\manta-ray-active-vacuum-tag\manta-ray-active-vacuum-tag\Hardware\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5977001D-2296-49E3-9E68-4D2E6529DEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C54725-7FE5-4E35-80CA-7D87FA04B00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="840" windowWidth="21390" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1395" yWindow="855" windowWidth="25890" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="99">
   <si>
     <t>Item</t>
   </si>
@@ -318,6 +318,18 @@
   </si>
   <si>
     <t>Connects to the prevost quick release to nipple</t>
+  </si>
+  <si>
+    <t>Vacuum cup</t>
+  </si>
+  <si>
+    <t>Fipa ref.102.160.380.4</t>
+  </si>
+  <si>
+    <t>Hennig UK Ltd</t>
+  </si>
+  <si>
+    <t>160mm vacuum cup that fits the tag's insert</t>
   </si>
 </sst>
 </file>
@@ -400,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -410,14 +422,15 @@
     <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,24 +649,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="42.28515625" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,7 +692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -705,7 +718,7 @@
         <v>84.48</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -731,7 +744,7 @@
         <v>55.8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -757,7 +770,7 @@
         <v>215.1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -783,7 +796,7 @@
         <v>41.66</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -809,7 +822,7 @@
         <v>80.91</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -819,11 +832,11 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -831,7 +844,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -857,7 +870,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -883,7 +896,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -909,21 +922,33 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+    <row r="12" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="6"/>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -931,99 +956,99 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="3">
-        <v>2</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G15" s="3">
         <v>2</v>
       </c>
       <c r="H15" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3">
         <v>2.1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3">
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="6"/>
+    <row r="18" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1031,190 +1056,202 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="4">
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4">
         <v>1.45</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3">
-        <v>2.4900000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3">
         <v>5.95</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="10"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H25" s="7">
-        <v>15.5</v>
-      </c>
+      <c r="B25" s="8"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-      <c r="H26" s="7">
-        <v>10</v>
+      <c r="G26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="5">
+        <v>15.5</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H28" s="5">
         <v>15.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Hardware/BOM/Manta active vaccum tag BOM.xlsx
+++ b/Hardware/BOM/Manta active vaccum tag BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\manta-ray-active-vacuum-tag\manta-ray-active-vacuum-tag\Hardware\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C54725-7FE5-4E35-80CA-7D87FA04B00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02A6834-EEAF-4580-83F9-E5B8767A9713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="855" windowWidth="25890" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="1455" windowWidth="25890" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="127">
   <si>
     <t>Item</t>
   </si>
@@ -330,13 +330,98 @@
   </si>
   <si>
     <t>160mm vacuum cup that fits the tag's insert</t>
+  </si>
+  <si>
+    <t>Vacuum generator</t>
+  </si>
+  <si>
+    <t>Venturi vacuum generator</t>
+  </si>
+  <si>
+    <t>Air Engineering Controls Ltd Vacuum Pump, 19.1mm nozzle , 847mbar 3398L/min, S80 series</t>
+  </si>
+  <si>
+    <t>https://uk.rs-online.com/web/p/vacuum-generators/8415160</t>
+  </si>
+  <si>
+    <t>https://uk.rs-online.com/web/p/hose-pipe-flexible-tubes/2732495</t>
+  </si>
+  <si>
+    <t>Farnell</t>
+  </si>
+  <si>
+    <t>https://uk.farnell.com/festo/qs-12-8/push-in-fitting-12mm-21mm/dp/3431817?cjdata=MXxZfDB8WXww&amp;gross_price=true&amp;CMP=AFC-CJ-UK-7947610&amp;source=CJ&amp;cjevent=3501b924265311ef83cba7780a18b8f8</t>
+  </si>
+  <si>
+    <t>https://uk.rs-online.com/web/p/hose-pipe-flexible-tubes/2732539?gb=s</t>
+  </si>
+  <si>
+    <t>https://uk.rs-online.com/web/p/pneumatic-non-return-valves/1442704?gb=s</t>
+  </si>
+  <si>
+    <t>https://uk.rs-online.com/web/p/sensor-accessories/7621184?gb=s</t>
+  </si>
+  <si>
+    <t>https://www.indanc.com/Catalogue/Compressed-Air/Quick-Release-Couplings/Prevost-Quick-Release-Couplings/Prevost-ESI-Coupling-Range/Prevost-ERP-07-Tapered-Male-Threaded-Adaptor-PREVOST-ERP-07-TAPERED-MALE-ADAPTOR?selected=ERP-076151</t>
+  </si>
+  <si>
+    <t>https://www.rowse-pneumatics.co.uk/prevost-esi-071808he</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>https://www.digikey.co.uk/en/products/detail/keystone-electronics/8715/317123?s=N4IgTCBcDaIMwDYC0AOA7ARgKxIHIBFA4AgAJD1sSAJAUQA1iBlAFQEECB5AMU%2BIGJk4YRg2IYA9ABYAOiBABdAL5A</t>
+  </si>
+  <si>
+    <t>https://www.accu.co.uk/flanged-button-screws/376760-SSBF-M8-60-A2</t>
+  </si>
+  <si>
+    <t>https://www.vacuumcups.co.uk/</t>
+  </si>
+  <si>
+    <t>https://www.accu.co.uk/flanged-button-screws/376819-SSBF-M3-50-A4</t>
+  </si>
+  <si>
+    <t>https://www.accu.co.uk/flanged-button-screws/376815-SSBF-M3-30-A4</t>
+  </si>
+  <si>
+    <t>https://www.accu.co.uk/flanged-button-screws/376812-SSBF-M3-20-A4</t>
+  </si>
+  <si>
+    <t>Purchase URL</t>
+  </si>
+  <si>
+    <t>Air system</t>
+  </si>
+  <si>
+    <t>Buoyancy aid (foam)</t>
+  </si>
+  <si>
+    <t>Blue Robotics R-3318</t>
+  </si>
+  <si>
+    <t>https://bluerobotics.com/store/watertight-enclosures/buoyancy/float-r3318-r1/</t>
+  </si>
+  <si>
+    <t>Blue Robotics</t>
+  </si>
+  <si>
+    <t>LAST-A-FOAM® R-3318</t>
+  </si>
+  <si>
+    <t>Buoyancy aid</t>
+  </si>
+  <si>
+    <t>$200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="[$£]#,##0.00"/>
   </numFmts>
@@ -412,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -429,8 +514,18 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,24 +744,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="42.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="3" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,22 +772,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -703,22 +801,25 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
       <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="10">
         <v>84.48</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -729,22 +830,25 @@
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
       <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10">
         <v>55.8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -755,22 +859,25 @@
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
       <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10">
         <v>215.1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -781,22 +888,25 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
       <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10">
         <v>41.66</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -807,22 +917,25 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
       <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10">
         <v>80.91</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -831,20 +944,22 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -855,22 +970,25 @@
         <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
       <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10">
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -881,22 +999,25 @@
         <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
       <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="10">
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -907,22 +1028,25 @@
         <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
       <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10">
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>95</v>
       </c>
@@ -933,20 +1057,23 @@
         <v>97</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
+      <c r="G12" s="2"/>
       <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="10">
         <v>59.6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -955,20 +1082,22 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -979,22 +1108,25 @@
         <v>33</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="10">
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>49</v>
       </c>
@@ -1004,23 +1136,26 @@
       <c r="C16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <v>2</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="10">
         <v>2.1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>54</v>
       </c>
@@ -1031,22 +1166,25 @@
         <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
       <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="11">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1055,20 +1193,22 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -1078,23 +1218,26 @@
       <c r="C20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
       <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>65</v>
       </c>
@@ -1105,22 +1248,25 @@
         <v>62</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4">
         <v>1.45</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>69</v>
       </c>
@@ -1131,22 +1277,25 @@
         <v>71</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
       <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="10">
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>75</v>
       </c>
@@ -1157,28 +1306,31 @@
         <v>71</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
       <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="10">
         <v>5.95</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>92</v>
       </c>
@@ -1189,19 +1341,22 @@
         <v>71</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H26" s="5">
+      <c r="I26" s="5">
         <v>15.5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>88</v>
       </c>
@@ -1209,22 +1364,25 @@
         <v>87</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="5">
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>93</v>
       </c>
@@ -1235,16 +1393,77 @@
         <v>71</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="H28" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H28" s="5">
+      <c r="I28" s="5">
         <v>15.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5">
+        <v>173.85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="8"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" t="s">
+        <v>125</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
